--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C062B9-CFF2-47C4-973C-6C0B5CF40530}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D706E-9D2B-4BEE-A9FD-DEA45D1BDC8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,12 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,6 +458,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,10 +772,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,84 +850,84 @@
       </c>
     </row>
     <row r="4" spans="2:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="16"/>
+      <c r="R4" s="25"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="16"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="16"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="16"/>
+      <c r="AA4" s="25"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="16"/>
+      <c r="AD4" s="25"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="16"/>
+      <c r="AG4" s="25"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="16"/>
+      <c r="AJ4" s="25"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="15" t="s">
+      <c r="AL4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="16"/>
+      <c r="AM4" s="25"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="15" t="s">
+      <c r="AO4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="16"/>
+      <c r="AP4" s="25"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="15" t="s">
+      <c r="AR4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AS4" s="16"/>
+      <c r="AS4" s="25"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="15" t="s">
+      <c r="AU4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AV4" s="16"/>
+      <c r="AV4" s="25"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="15" t="s">
+      <c r="AX4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="15" t="s">
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="BA4" s="16"/>
+      <c r="BA4" s="25"/>
     </row>
     <row r="5" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1062,10 +1062,10 @@
     <row r="6" spans="2:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1074,111 +1074,113 @@
       <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
       <c r="I6" s="8">
         <f>G6-H6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <f t="shared" ref="L6:L16" si="0">I6-K6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8">
         <f t="shared" ref="O6:O16" si="1">L6-N6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8">
         <f t="shared" ref="R6:R16" si="2">O6-Q6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8">
         <f t="shared" ref="U6:U16" si="3">R6-T6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8">
         <f t="shared" ref="X6:X16" si="4">U6-W6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8">
         <f t="shared" ref="AA6:AA16" si="5">X6-Z6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8">
         <f t="shared" ref="AD6:AD16" si="6">AA6-AC6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8">
         <f t="shared" ref="AG6:AG16" si="7">AD6-AF6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="10"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ16" si="8">AG6-AI6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8">
         <f t="shared" ref="AM6:AM16" si="9">AJ6-AL6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN6" s="10"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8">
         <f t="shared" ref="AP6:AP16" si="10">AM6-AO6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8">
         <f t="shared" ref="AS6:AS16" si="11">AP6-AR6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="10"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8">
         <f t="shared" ref="AV6:AV16" si="12">AS6-AU6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW6" s="10"/>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8">
         <f t="shared" ref="AY6:AY16" si="13">AV6-AX6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ6" s="11">
         <f t="shared" ref="AZ6:AZ16" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA6" s="11">
         <f t="shared" ref="BA6:BA16" si="15">G6-AZ6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:53" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1288,10 +1290,10 @@
     <row r="8" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1401,10 +1403,10 @@
     <row r="9" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1514,10 +1516,10 @@
     <row r="10" spans="2:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1630,7 +1632,7 @@
       <c r="D11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1740,10 +1742,10 @@
     <row r="12" spans="2:53" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1853,10 +1855,10 @@
     <row r="13" spans="2:53" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1966,10 +1968,10 @@
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2079,10 +2081,10 @@
     <row r="15" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -2193,7 +2195,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
@@ -2610,6 +2612,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2621,11 +2628,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D706E-9D2B-4BEE-A9FD-DEA45D1BDC8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A62927F-B2E8-4ABF-8A93-99A424AD67EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -465,12 +473,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{7D707B13-ED15-43BF-9B27-CEF53E2D3B45}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -775,7 +814,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,102 +1228,104 @@
       <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
       <c r="I7" s="8">
         <f t="shared" ref="I7:I16" si="16">G7-H7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="10"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="10"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="10"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="10"/>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA7" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1296,108 +1337,110 @@
       <c r="E8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
       <c r="I8" s="8">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" s="10"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="10"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="10"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="10"/>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="10"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="10"/>
       <c r="AX8" s="8"/>
       <c r="AY8" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2612,11 +2655,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2628,6 +2666,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A62927F-B2E8-4ABF-8A93-99A424AD67EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590BC4A4-F34C-4DEC-A453-810FCF93E0CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Columna</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>CU 08 - Inscribir alumno.</t>
+  </si>
+  <si>
+    <t>Hecho</t>
   </si>
 </sst>
 </file>
@@ -467,14 +470,14 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,10 +814,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,84 +892,84 @@
       </c>
     </row>
     <row r="4" spans="2:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="25"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="25"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="25"/>
+      <c r="U4" s="26"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="25"/>
+      <c r="X4" s="26"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="24" t="s">
+      <c r="Z4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="25"/>
+      <c r="AA4" s="26"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="24" t="s">
+      <c r="AC4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="25"/>
+      <c r="AD4" s="26"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="24" t="s">
+      <c r="AF4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="25"/>
+      <c r="AG4" s="26"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="24" t="s">
+      <c r="AI4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="25"/>
+      <c r="AJ4" s="26"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="24" t="s">
+      <c r="AL4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="25"/>
+      <c r="AM4" s="26"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="24" t="s">
+      <c r="AO4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="25"/>
+      <c r="AP4" s="26"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="24" t="s">
+      <c r="AR4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AS4" s="25"/>
+      <c r="AS4" s="26"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="24" t="s">
+      <c r="AU4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AV4" s="25"/>
+      <c r="AV4" s="26"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="24" t="s">
+      <c r="AX4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="24" t="s">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="BA4" s="25"/>
+      <c r="BA4" s="26"/>
     </row>
     <row r="5" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1108,7 +1111,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
@@ -1223,7 +1226,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -1337,8 +1340,8 @@
       <c r="E8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>41</v>
+      <c r="F8" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
@@ -1453,7 +1456,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G9" s="5">
         <v>4</v>
@@ -1464,96 +1467,98 @@
         <v>4</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8">
+        <v>3</v>
+      </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="10"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="10"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="10"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="10"/>
       <c r="AX9" s="8"/>
       <c r="AY9" s="8">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA9" s="11">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,6 +2660,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2666,11 +2676,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590BC4A4-F34C-4DEC-A453-810FCF93E0CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A1929C17-89A7-44FE-A32E-B2665FD62D18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -440,9 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,10 +814,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,84 +892,84 @@
       </c>
     </row>
     <row r="4" spans="2:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="26"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="26"/>
+      <c r="R4" s="25"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="26"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="26"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="25" t="s">
+      <c r="Z4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="26"/>
+      <c r="AA4" s="25"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="26"/>
+      <c r="AD4" s="25"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="25" t="s">
+      <c r="AF4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="26"/>
+      <c r="AG4" s="25"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="25" t="s">
+      <c r="AI4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="26"/>
+      <c r="AJ4" s="25"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="25" t="s">
+      <c r="AL4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="26"/>
+      <c r="AM4" s="25"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="25" t="s">
+      <c r="AO4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="26"/>
+      <c r="AP4" s="25"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="25" t="s">
+      <c r="AR4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AS4" s="26"/>
+      <c r="AS4" s="25"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="25" t="s">
+      <c r="AU4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AV4" s="26"/>
+      <c r="AV4" s="25"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="25" t="s">
+      <c r="AX4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="25" t="s">
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="BA4" s="26"/>
+      <c r="BA4" s="25"/>
     </row>
     <row r="5" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1104,10 +1104,10 @@
     <row r="6" spans="2:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1219,10 +1219,10 @@
     <row r="7" spans="2:53" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1334,13 +1334,13 @@
     <row r="8" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="5">
@@ -1449,10 +1449,10 @@
     <row r="9" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1564,10 +1564,10 @@
     <row r="10" spans="2:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1588,99 +1588,101 @@
         <v>2</v>
       </c>
       <c r="M10" s="10"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8">
+        <v>2</v>
+      </c>
       <c r="O10" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="10"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA10" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1790,10 +1792,10 @@
     <row r="12" spans="2:53" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1903,10 +1905,10 @@
     <row r="13" spans="2:53" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2016,10 +2018,10 @@
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2129,10 +2131,10 @@
     <row r="15" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -2243,7 +2245,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
@@ -2660,11 +2662,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2676,6 +2673,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A1929C17-89A7-44FE-A32E-B2665FD62D18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A2B9A-BE95-4611-8D6B-0E65CF1F3F63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>Columna</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Hecho</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -470,14 +473,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,10 +817,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,84 +895,84 @@
       </c>
     </row>
     <row r="4" spans="2:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="25"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="25"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="25"/>
+      <c r="U4" s="26"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="25"/>
+      <c r="X4" s="26"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="24" t="s">
+      <c r="Z4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="25"/>
+      <c r="AA4" s="26"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="24" t="s">
+      <c r="AC4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="25"/>
+      <c r="AD4" s="26"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="24" t="s">
+      <c r="AF4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="25"/>
+      <c r="AG4" s="26"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="24" t="s">
+      <c r="AI4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="25"/>
+      <c r="AJ4" s="26"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="24" t="s">
+      <c r="AL4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="25"/>
+      <c r="AM4" s="26"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="24" t="s">
+      <c r="AO4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="25"/>
+      <c r="AP4" s="26"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="24" t="s">
+      <c r="AR4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AS4" s="25"/>
+      <c r="AS4" s="26"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="24" t="s">
+      <c r="AU4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AV4" s="25"/>
+      <c r="AV4" s="26"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="24" t="s">
+      <c r="AX4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="24" t="s">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="BA4" s="25"/>
+      <c r="BA4" s="26"/>
     </row>
     <row r="5" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1571,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5">
         <v>2</v>
@@ -1679,7 +1682,7 @@
     <row r="11" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -1799,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5">
         <v>2</v>
@@ -1816,90 +1819,92 @@
         <v>2</v>
       </c>
       <c r="M12" s="10"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8">
+        <v>2</v>
+      </c>
       <c r="O12" s="8">
         <f>L12-N12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8">
         <f>O12-Q12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8">
         <f>R12-T12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8">
         <f>U12-W12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8">
         <f>X12-Z12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8">
         <f>AA12-AC12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8">
         <f>AD12-AF12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="10"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8">
         <f>AG12-AI12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8">
         <f>AJ12-AL12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8">
         <f>AM12-AO12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8">
         <f>AP12-AR12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="10"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8">
         <f>AS12-AU12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="10"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8">
         <f>AV12-AX12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="11">
         <f>H12+K12+N12+Q12+T12+W12+Z12+AC12+AF12+AI12+AL12+AO12+AR12+AU12+AX12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA12" s="11">
         <f>G12-AZ12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:53" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2662,6 +2667,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2673,11 +2683,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A2B9A-BE95-4611-8D6B-0E65CF1F3F63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275D091-CAEE-451F-BBAE-C5042DB693DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,10 +817,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5">
         <v>2</v>
@@ -1827,84 +1827,86 @@
         <v>0</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
       <c r="R12" s="8">
         <f>O12-Q12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8">
         <f>R12-T12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8">
         <f>U12-W12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8">
         <f>X12-Z12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8">
         <f>AA12-AC12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8">
         <f>AD12-AF12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH12" s="10"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8">
         <f>AG12-AI12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8">
         <f>AJ12-AL12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8">
         <f>AM12-AO12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8">
         <f>AP12-AR12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT12" s="10"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8">
         <f>AS12-AU12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW12" s="10"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8">
         <f>AV12-AX12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AZ12" s="11">
         <f>H12+K12+N12+Q12+T12+W12+Z12+AC12+AF12+AI12+AL12+AO12+AR12+AU12+AX12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA12" s="11">
         <f>G12-AZ12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="2:53" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5">
         <v>3</v>
@@ -1940,84 +1942,86 @@
         <v>3</v>
       </c>
       <c r="P13" s="10"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
       <c r="R13" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,11 +2671,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2683,6 +2682,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275D091-CAEE-451F-BBAE-C5042DB693DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -201,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +505,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{7D707B13-ED15-43BF-9B27-CEF53E2D3B45}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -813,14 +807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,10 +1579,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8">
+        <v>3</v>
+      </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="8">
@@ -1596,87 +1592,87 @@
       </c>
       <c r="O10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AW10" s="10"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AZ10" s="11">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA10" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,6 +2667,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2682,11 +2683,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2704,7 +2700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE39DF3C-A9FC-404C-8109-6043C41A9C6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -195,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -564,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,9 +603,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,6 +655,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -807,14 +847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,78 +1986,80 @@
         <v>2</v>
       </c>
       <c r="S13" s="10"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,11 +2709,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2683,6 +2720,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2700,7 +2742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE39DF3C-A9FC-404C-8109-6043C41A9C6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2DC7C87A-91F8-4292-9127-8CD08A3CA963}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -851,10 +851,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,84 +1635,86 @@
         <v>-3</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
       <c r="R10" s="8">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8">
         <f t="shared" si="8"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8">
         <f t="shared" si="10"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AW10" s="10"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="8">
         <f t="shared" si="13"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AZ10" s="11">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA10" s="11">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,6 +2711,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2720,11 +2727,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2DC7C87A-91F8-4292-9127-8CD08A3CA963}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6B0093B1-4658-493A-9D21-5D91A064DFB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1608,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="5">
         <v>2</v>
@@ -1727,7 +1727,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1756,78 +1756,80 @@
         <v>1</v>
       </c>
       <c r="S11" s="10"/>
-      <c r="T11" s="8"/>
+      <c r="T11" s="8">
+        <v>1</v>
+      </c>
       <c r="U11" s="8">
         <f>R11-T11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8">
         <f>U11-W11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8">
         <f>X11-Z11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8">
         <f>AA11-AC11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8">
         <f>AD11-AF11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="10"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8">
         <f>AG11-AI11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="10"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8">
         <f>AJ11-AL11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="10"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8">
         <f>AM11-AO11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8">
         <f>AP11-AR11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="10"/>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8">
         <f>AS11-AU11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="10"/>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8">
         <f>AV11-AX11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="11">
         <f>H11+K11+N11+Q11+T11+W11+Z11+AC11+AF11+AI11+AL11+AO11+AR11+AU11+AX11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="11">
         <f>G11-AZ11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:53" ht="75" x14ac:dyDescent="0.25">
@@ -2711,11 +2713,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2727,6 +2724,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2DC7C87A-91F8-4292-9127-8CD08A3CA963}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7972FB12-94F5-4258-85AC-F6988FC8CC17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -851,10 +851,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1608,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="5">
         <v>2</v>
@@ -1996,72 +1996,74 @@
         <v>1</v>
       </c>
       <c r="V13" s="10"/>
-      <c r="W13" s="8"/>
+      <c r="W13" s="8">
+        <v>2</v>
+      </c>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,11 +2713,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2727,6 +2724,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2DC7C87A-91F8-4292-9127-8CD08A3CA963}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A680C-730C-48A3-BDB9-1D7699006193}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -854,7 +854,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,79 +1989,79 @@
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,11 +2711,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2727,6 +2722,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A680C-730C-48A3-BDB9-1D7699006193}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A1EF6-2179-420F-BB1D-77F331D5DB1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Columna</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Hecho</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -851,10 +848,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1605,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="5">
         <v>2</v>
@@ -1643,78 +1640,80 @@
         <v>-4</v>
       </c>
       <c r="S10" s="10"/>
-      <c r="T10" s="8"/>
+      <c r="T10" s="8">
+        <v>2</v>
+      </c>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8">
         <f t="shared" si="4"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8">
         <f t="shared" si="8"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8">
         <f t="shared" si="9"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8">
         <f t="shared" si="10"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8">
         <f t="shared" si="11"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AW10" s="10"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="8">
         <f t="shared" si="13"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AZ10" s="11">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA10" s="11">
         <f t="shared" si="15"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1727,7 +1726,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1756,78 +1755,80 @@
         <v>1</v>
       </c>
       <c r="S11" s="10"/>
-      <c r="T11" s="8"/>
+      <c r="T11" s="8">
+        <v>1</v>
+      </c>
       <c r="U11" s="8">
         <f>R11-T11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8">
         <f>U11-W11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8">
         <f>X11-Z11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8">
         <f>AA11-AC11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8">
         <f>AD11-AF11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="10"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8">
         <f>AG11-AI11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="10"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8">
         <f>AJ11-AL11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="10"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8">
         <f>AM11-AO11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8">
         <f>AP11-AR11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="10"/>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8">
         <f>AS11-AU11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="10"/>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8">
         <f>AV11-AX11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="11">
         <f>H11+K11+N11+Q11+T11+W11+Z11+AC11+AF11+AI11+AL11+AO11+AR11+AU11+AX11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="11">
         <f>G11-AZ11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:53" ht="75" x14ac:dyDescent="0.25">
@@ -1957,7 +1958,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5">
         <v>3</v>
@@ -2187,7 +2188,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G15" s="5">
         <v>2</v>
@@ -2216,78 +2217,80 @@
         <v>2</v>
       </c>
       <c r="S15" s="10"/>
-      <c r="T15" s="8"/>
+      <c r="T15" s="8">
+        <v>3</v>
+      </c>
       <c r="U15" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AH15" s="10"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK15" s="10"/>
       <c r="AL15" s="8"/>
       <c r="AM15" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AN15" s="10"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AT15" s="10"/>
       <c r="AU15" s="8"/>
       <c r="AV15" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW15" s="10"/>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ15" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA15" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="2:53" x14ac:dyDescent="0.25">

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A1EF6-2179-420F-BB1D-77F331D5DB1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DBC4ACB-437B-4C13-B655-5C4ED9E7095C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -156,9 +156,6 @@
     <t>Mario</t>
   </si>
   <si>
-    <t>Por iniciar</t>
-  </si>
-  <si>
     <t>Víctor</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Hecho</t>
+  </si>
+  <si>
+    <t>hecho</t>
   </si>
 </sst>
 </file>
@@ -848,10 +848,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,13 +1139,13 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
@@ -1254,13 +1254,13 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -1369,13 +1369,13 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
@@ -1484,13 +1484,13 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5">
         <v>4</v>
@@ -1599,13 +1599,13 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="5">
         <v>2</v>
@@ -1720,13 +1720,13 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1835,13 +1835,13 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="5">
         <v>2</v>
@@ -1952,13 +1952,13 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5">
         <v>3</v>
@@ -2069,13 +2069,13 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G14" s="5">
         <v>2</v>
@@ -2104,91 +2104,93 @@
         <v>2</v>
       </c>
       <c r="S14" s="10"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="8">
+        <v>4</v>
+      </c>
       <c r="U14" s="8">
         <f>R14-T14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="V14" s="10"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8">
         <f>U14-W14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8">
         <f>X14-Z14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8">
         <f>AA14-AC14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8">
         <f>AD14-AF14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH14" s="10"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8">
         <f>AG14-AI14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK14" s="10"/>
       <c r="AL14" s="8"/>
       <c r="AM14" s="8">
         <f>AJ14-AL14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AN14" s="10"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8">
         <f>AM14-AO14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="8">
         <f>AP14-AR14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AT14" s="10"/>
       <c r="AU14" s="8"/>
       <c r="AV14" s="8">
         <f>AS14-AU14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AW14" s="10"/>
       <c r="AX14" s="8"/>
       <c r="AY14" s="8">
         <f>AV14-AX14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AZ14" s="11">
         <f>H14+K14+N14+Q14+T14+W14+Z14+AC14+AF14+AI14+AL14+AO14+AR14+AU14+AX14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA14" s="11">
         <f>G14-AZ14</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G15" s="5">
         <v>2</v>
@@ -2714,6 +2716,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2725,11 +2732,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 5ta Iteración.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DBC4ACB-437B-4C13-B655-5C4ED9E7095C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E0D5822E-BD97-4154-94DC-E5B67C19D1E1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,10 +848,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,79 +2105,79 @@
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U14" s="8">
         <f>R14-T14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="V14" s="10"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8">
         <f>U14-W14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8">
         <f>X14-Z14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8">
         <f>AA14-AC14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8">
         <f>AD14-AF14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AH14" s="10"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8">
         <f>AG14-AI14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AK14" s="10"/>
       <c r="AL14" s="8"/>
       <c r="AM14" s="8">
         <f>AJ14-AL14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AN14" s="10"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8">
         <f>AM14-AO14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="8">
         <f>AP14-AR14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AT14" s="10"/>
       <c r="AU14" s="8"/>
       <c r="AV14" s="8">
         <f>AS14-AU14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AW14" s="10"/>
       <c r="AX14" s="8"/>
       <c r="AY14" s="8">
         <f>AV14-AX14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AZ14" s="11">
         <f>H14+K14+N14+Q14+T14+W14+Z14+AC14+AF14+AI14+AL14+AO14+AR14+AU14+AX14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA14" s="11">
         <f>G14-AZ14</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15" spans="2:53" x14ac:dyDescent="0.25">
@@ -2716,11 +2716,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2732,6 +2727,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
